--- a/data/long_razon/P50-Edad-long_razon.xlsx
+++ b/data/long_razon/P50-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>113,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-61,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,16; 272,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-80,44; -24,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 185,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 33,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 143,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 89,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 118,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 119,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 90,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 56,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 120,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 29,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 86,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 88,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 45,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 47,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-54,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 154,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 56,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 97,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 113,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,04; -37,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 104,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 102,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 77,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 111,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 34,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 38,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 140,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 22,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 56,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 94,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 16,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 30,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 94,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 37,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 76,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 78,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,21; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 48,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 65,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 6,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 42,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-40,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 104,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 54,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 49,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 57,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -8,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 70,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 30,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,19; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,7; -11,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 29,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 52,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 22,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
